--- a/Code/Results/Cases/Case_3_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_235/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5938071995698806</v>
+        <v>0.2162994289648736</v>
       </c>
       <c r="C2">
-        <v>0.06882191525303938</v>
+        <v>0.03133084960579424</v>
       </c>
       <c r="D2">
-        <v>0.03511989089506962</v>
+        <v>0.03393069819610872</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.190515543127717</v>
+        <v>1.138836170362822</v>
       </c>
       <c r="G2">
-        <v>1.159240826783773</v>
+        <v>1.010047872608311</v>
       </c>
       <c r="H2">
-        <v>0.7293259888032253</v>
+        <v>0.9857809319671844</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5664918436378485</v>
+        <v>0.1708619479876887</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.736960550916422</v>
+        <v>0.8801035284143666</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5151232195335353</v>
+        <v>0.1945429446079174</v>
       </c>
       <c r="C3">
-        <v>0.06443606655995637</v>
+        <v>0.02965730065874084</v>
       </c>
       <c r="D3">
-        <v>0.03541353680513382</v>
+        <v>0.03360386571623764</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.095092358476862</v>
+        <v>1.116958623902804</v>
       </c>
       <c r="G3">
-        <v>1.066449724372958</v>
+        <v>0.987655369128575</v>
       </c>
       <c r="H3">
-        <v>0.692840957638424</v>
+        <v>0.9792795701159491</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4945382734808277</v>
+        <v>0.1500835450877531</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.326873911815838</v>
+        <v>0.7839656560886397</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4670095472006182</v>
+        <v>0.1812701132699459</v>
       </c>
       <c r="C4">
-        <v>0.0616951723960355</v>
+        <v>0.02861051222124189</v>
       </c>
       <c r="D4">
-        <v>0.03556149585062407</v>
+        <v>0.03339213200879421</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.03843559648034</v>
+        <v>1.104061161900148</v>
       </c>
       <c r="G4">
-        <v>1.011463881277038</v>
+        <v>0.9743881710405589</v>
       </c>
       <c r="H4">
-        <v>0.6715096539352317</v>
+        <v>0.9756552959098883</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4504041524238289</v>
+        <v>0.137349619966102</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.084367061872513</v>
+        <v>0.7254832238757984</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4474427876273808</v>
+        <v>0.1758831402260057</v>
       </c>
       <c r="C5">
-        <v>0.06056675347132767</v>
+        <v>0.02817912639009279</v>
       </c>
       <c r="D5">
-        <v>0.03561437216816898</v>
+        <v>0.03330308439064211</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.015789172438602</v>
+        <v>1.098939502468468</v>
       </c>
       <c r="G5">
-        <v>0.9895091302399095</v>
+        <v>0.9691022251439705</v>
       </c>
       <c r="H5">
-        <v>0.6630652968566437</v>
+        <v>0.9742706183521221</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4324237828263193</v>
+        <v>0.1321667547295675</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.987475457830797</v>
+        <v>0.7017821167133178</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4441958714984651</v>
+        <v>0.1749899624732194</v>
       </c>
       <c r="C6">
-        <v>0.06037870123476097</v>
+        <v>0.02810720519035925</v>
       </c>
       <c r="D6">
-        <v>0.03562272361853047</v>
+        <v>0.03328813160917576</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.01205419953709</v>
+        <v>1.098097143875677</v>
       </c>
       <c r="G6">
-        <v>0.9858895776533814</v>
+        <v>0.9682317601336052</v>
       </c>
       <c r="H6">
-        <v>0.6616775396054209</v>
+        <v>0.9740462594888868</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4294382386712385</v>
+        <v>0.1313065326671961</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.971492679426376</v>
+        <v>0.6978542880536338</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4667455141601238</v>
+        <v>0.1811973740068424</v>
       </c>
       <c r="C7">
-        <v>0.06167999996985429</v>
+        <v>0.02860471385039176</v>
       </c>
       <c r="D7">
-        <v>0.03556223810774384</v>
+        <v>0.03339094225341377</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.038128446559028</v>
+        <v>1.103991546824773</v>
       </c>
       <c r="G7">
-        <v>1.011166019655988</v>
+        <v>0.9743163956703569</v>
       </c>
       <c r="H7">
-        <v>0.6713947912147944</v>
+        <v>0.9756362484189083</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4501616530426418</v>
+        <v>0.137279696136531</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.083053015873091</v>
+        <v>0.7251630607030251</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5666295779649886</v>
+        <v>0.2087801427575187</v>
       </c>
       <c r="C8">
-        <v>0.06732002441395224</v>
+        <v>0.03075781275224898</v>
       </c>
       <c r="D8">
-        <v>0.03522830835692758</v>
+        <v>0.03382031081264003</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.157184223019968</v>
+        <v>1.131181363466482</v>
       </c>
       <c r="G8">
-        <v>1.126803729935077</v>
+        <v>1.002226532768759</v>
       </c>
       <c r="H8">
-        <v>0.7165105392077606</v>
+        <v>0.9834628512678449</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5416686224358926</v>
+        <v>0.1636926977161295</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.593371841746375</v>
+        <v>0.8468377719657525</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.764555158016833</v>
+        <v>0.2635419861717878</v>
       </c>
       <c r="C9">
-        <v>0.0779640216515034</v>
+        <v>0.03482666994077732</v>
       </c>
       <c r="D9">
-        <v>0.03427951412156283</v>
+        <v>0.03457387825182145</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.408251897292942</v>
+        <v>1.188774508677923</v>
       </c>
       <c r="G9">
-        <v>1.371763503065552</v>
+        <v>1.060813933605317</v>
       </c>
       <c r="H9">
-        <v>0.8145365708065526</v>
+        <v>1.001737679011995</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7217886561818716</v>
+        <v>0.2156712960070877</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.690034583616608</v>
+        <v>1.090087323697361</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9119145384481726</v>
+        <v>0.3041786633279742</v>
       </c>
       <c r="C10">
-        <v>0.08545905503483908</v>
+        <v>0.03772166002668342</v>
       </c>
       <c r="D10">
-        <v>0.03334026035648741</v>
+        <v>0.03507271384838972</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.607063918403512</v>
+        <v>1.233734694984136</v>
       </c>
       <c r="G10">
-        <v>1.566722935097033</v>
+        <v>1.106258496999999</v>
       </c>
       <c r="H10">
-        <v>0.8940766932479391</v>
+        <v>1.01696512470852</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8549516047763603</v>
+        <v>0.2539640291128933</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.59389019737489</v>
+        <v>1.272085978004071</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9795262778922051</v>
+        <v>0.3227517873469594</v>
       </c>
       <c r="C11">
-        <v>0.08877226750973932</v>
+        <v>0.03901798711891757</v>
       </c>
       <c r="D11">
-        <v>0.03284183750598046</v>
+        <v>0.03528755548003204</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.70160632022386</v>
+        <v>1.254772141603283</v>
       </c>
       <c r="G11">
-        <v>1.659731236345948</v>
+        <v>1.127464762513171</v>
       </c>
       <c r="H11">
-        <v>0.9323525552461547</v>
+        <v>1.024287314088554</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9157840943323947</v>
+        <v>0.2714056822293287</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.038853593632481</v>
+        <v>1.355696024925507</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.005223790777166</v>
+        <v>0.3297973129845957</v>
       </c>
       <c r="C12">
-        <v>0.09000970337621794</v>
+        <v>0.03950588659493803</v>
       </c>
       <c r="D12">
-        <v>0.03264079918710117</v>
+        <v>0.03536715696783332</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.738097212945178</v>
+        <v>1.262823212364509</v>
       </c>
       <c r="G12">
-        <v>1.695681601043333</v>
+        <v>1.135572510131567</v>
       </c>
       <c r="H12">
-        <v>0.9471942513406759</v>
+        <v>1.027117121457422</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9388597553233922</v>
+        <v>0.2780133644091336</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.213665315618087</v>
+        <v>1.387482755126499</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9996850030472046</v>
+        <v>0.3282793907455641</v>
       </c>
       <c r="C13">
-        <v>0.08974403247529494</v>
+        <v>0.03940094218302193</v>
       </c>
       <c r="D13">
-        <v>0.03268468249161849</v>
+        <v>0.03535009166124325</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.730205761342674</v>
+        <v>1.261085496761552</v>
       </c>
       <c r="G13">
-        <v>1.687904595318145</v>
+        <v>1.133822908124728</v>
       </c>
       <c r="H13">
-        <v>0.9439815327351653</v>
+        <v>1.026505130631364</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9338882220777975</v>
+        <v>0.2765901568472486</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.175707433847236</v>
+        <v>1.380631209561642</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9816384741061199</v>
+        <v>0.3233311822569362</v>
       </c>
       <c r="C14">
-        <v>0.0888744408664266</v>
+        <v>0.03905818700837926</v>
       </c>
       <c r="D14">
-        <v>0.03282555830690015</v>
+        <v>0.03529413960046668</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.704593980633959</v>
+        <v>1.255432808441824</v>
       </c>
       <c r="G14">
-        <v>1.662673557287349</v>
+        <v>1.128130236606381</v>
       </c>
       <c r="H14">
-        <v>0.933566327635134</v>
+        <v>1.02451897927736</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9176817419126735</v>
+        <v>0.2719492435116422</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.053098924916014</v>
+        <v>1.358308579326533</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9705970701954811</v>
+        <v>0.3203018538963249</v>
       </c>
       <c r="C15">
-        <v>0.08833942843114784</v>
+        <v>0.03884784919906537</v>
       </c>
       <c r="D15">
-        <v>0.03291017638111171</v>
+        <v>0.03525963837003943</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.688999153444982</v>
+        <v>1.2519814134439</v>
       </c>
       <c r="G15">
-        <v>1.647317515346998</v>
+        <v>1.124653411134972</v>
       </c>
       <c r="H15">
-        <v>0.9272334990428135</v>
+        <v>1.023309841152098</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9077600087553037</v>
+        <v>0.2691069206113923</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.978870920750822</v>
+        <v>1.344651892175094</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9075085640701275</v>
+        <v>0.3029665997913753</v>
       </c>
       <c r="C16">
-        <v>0.08524033179184443</v>
+        <v>0.03763652483961977</v>
       </c>
       <c r="D16">
-        <v>0.03337123759281191</v>
+        <v>0.03505842887318167</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.600975995776153</v>
+        <v>1.232371663412579</v>
       </c>
       <c r="G16">
-        <v>1.560740381782182</v>
+        <v>1.104883409383092</v>
       </c>
       <c r="H16">
-        <v>0.8916211652705215</v>
+        <v>1.016494573501006</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8509815259475459</v>
+        <v>0.2528245975245511</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.565605199173476</v>
+        <v>1.266638986116178</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8689620310522059</v>
+        <v>0.2923541512597012</v>
       </c>
       <c r="C17">
-        <v>0.08331245005183519</v>
+        <v>0.03688811685873361</v>
       </c>
       <c r="D17">
-        <v>0.03363455548375427</v>
+        <v>0.0349318868751034</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.548092496419358</v>
+        <v>1.220491894641967</v>
       </c>
       <c r="G17">
-        <v>1.508805625781406</v>
+        <v>1.0928922465651</v>
       </c>
       <c r="H17">
-        <v>0.8703405904885813</v>
+        <v>1.012414997992749</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8162182828263695</v>
+        <v>0.2428413860669423</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.321638604949243</v>
+        <v>1.218995576601401</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8468447599398132</v>
+        <v>0.2862583840328909</v>
       </c>
       <c r="C18">
-        <v>0.08219477714586532</v>
+        <v>0.03645571327342623</v>
       </c>
       <c r="D18">
-        <v>0.0337794618776428</v>
+        <v>0.03485796714437228</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.518054441669747</v>
+        <v>1.213713979934425</v>
       </c>
       <c r="G18">
-        <v>1.479333174536123</v>
+        <v>1.086045401510205</v>
       </c>
       <c r="H18">
-        <v>0.8582943083130203</v>
+        <v>1.010105713239682</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.796247435091189</v>
+        <v>0.2371014028268377</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.184388325253664</v>
+        <v>1.191668857761115</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8393650891173934</v>
+        <v>0.2841958840761549</v>
       </c>
       <c r="C19">
-        <v>0.08181492273852342</v>
+        <v>0.03630897661304999</v>
       </c>
       <c r="D19">
-        <v>0.03382745455284741</v>
+        <v>0.03483274458682928</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.507946447437874</v>
+        <v>1.211428526585237</v>
       </c>
       <c r="G19">
-        <v>1.469419866063419</v>
+        <v>1.083735770105932</v>
       </c>
       <c r="H19">
-        <v>0.8542476397438463</v>
+        <v>1.009330207658024</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7894896450974045</v>
+        <v>0.2351583113840263</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.138408073340088</v>
+        <v>1.182429406673748</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8730597344918465</v>
+        <v>0.2934830144273519</v>
       </c>
       <c r="C20">
-        <v>0.08351860817212753</v>
+        <v>0.03696798704744708</v>
       </c>
       <c r="D20">
-        <v>0.03360721566810021</v>
+        <v>0.0349454751956273</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.553682133072357</v>
+        <v>1.221750818609493</v>
       </c>
       <c r="G20">
-        <v>1.514292148508304</v>
+        <v>1.094163530407798</v>
       </c>
       <c r="H20">
-        <v>0.8725855831021931</v>
+        <v>1.012845426202119</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8199163697691034</v>
+        <v>0.2439039010129704</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.347282092821175</v>
+        <v>1.224059324508445</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9869365292706505</v>
+        <v>0.3247842596930468</v>
       </c>
       <c r="C21">
-        <v>0.08913036127686524</v>
+        <v>0.03915894391099073</v>
       </c>
       <c r="D21">
-        <v>0.03278453274143445</v>
+        <v>0.0353106218264152</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.71209716603525</v>
+        <v>1.257090838349384</v>
       </c>
       <c r="G21">
-        <v>1.670063729069341</v>
+        <v>1.129800206079352</v>
       </c>
       <c r="H21">
-        <v>0.9366156793918492</v>
+        <v>1.02510080980764</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9224408932315669</v>
+        <v>0.2733123155205988</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.088926747649012</v>
+        <v>1.364861809887472</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.061916178400253</v>
+        <v>0.3453129267905126</v>
       </c>
       <c r="C22">
-        <v>0.09269504318795896</v>
+        <v>0.04057341192175556</v>
       </c>
       <c r="D22">
-        <v>0.03217375945277823</v>
+        <v>0.03553903252669599</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.819713121966018</v>
+        <v>1.280681226362205</v>
       </c>
       <c r="G22">
-        <v>1.776193657149349</v>
+        <v>1.153542284341427</v>
       </c>
       <c r="H22">
-        <v>0.9805171404704538</v>
+        <v>1.033443070730527</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9896766656706006</v>
+        <v>0.2925492320622425</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.611490039308421</v>
+        <v>1.457619186023237</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.021843960776039</v>
+        <v>0.3343499366134211</v>
       </c>
       <c r="C23">
-        <v>0.09080340768398543</v>
+        <v>0.03982008912041834</v>
       </c>
       <c r="D23">
-        <v>0.03250727675587584</v>
+        <v>0.03541806745735343</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.76186429426518</v>
+        <v>1.268045241307092</v>
       </c>
       <c r="G23">
-        <v>1.719112187024535</v>
+        <v>1.140829147397596</v>
       </c>
       <c r="H23">
-        <v>0.9568802239929255</v>
+        <v>1.028960133395827</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9537706169798525</v>
+        <v>0.2822806779791165</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.328511232960011</v>
+        <v>1.408042962014918</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8712070277089197</v>
+        <v>0.2929726383285924</v>
       </c>
       <c r="C24">
-        <v>0.08342543284403803</v>
+        <v>0.03693188437938488</v>
       </c>
       <c r="D24">
-        <v>0.03361959603052611</v>
+        <v>0.03493933555608564</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.551153927553486</v>
+        <v>1.22118149739768</v>
       </c>
       <c r="G24">
-        <v>1.511810498650931</v>
+        <v>1.093588636535031</v>
       </c>
       <c r="H24">
-        <v>0.8715700391179837</v>
+        <v>1.012650717128338</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8182444182012318</v>
+        <v>0.2434235395489992</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.335679401458719</v>
+        <v>1.221769804972794</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7107209552743825</v>
+        <v>0.248656191963164</v>
       </c>
       <c r="C25">
-        <v>0.07513501357755814</v>
+        <v>0.03374244819838879</v>
       </c>
       <c r="D25">
-        <v>0.03457344805182494</v>
+        <v>0.03437957863046748</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.338103438799934</v>
+        <v>1.172732260225644</v>
       </c>
       <c r="G25">
-        <v>1.303178817997008</v>
+        <v>1.044546575488681</v>
       </c>
       <c r="H25">
-        <v>0.7868340354374652</v>
+        <v>0.9964788027899658</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6729443372541652</v>
+        <v>0.2015909090158061</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.37954873214143</v>
+        <v>1.023738538602785</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_235/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2162994289648736</v>
+        <v>0.593807199569909</v>
       </c>
       <c r="C2">
-        <v>0.03133084960579424</v>
+        <v>0.06882191525328096</v>
       </c>
       <c r="D2">
-        <v>0.03393069819610872</v>
+        <v>0.03511989089512113</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.138836170362822</v>
+        <v>1.190515543127702</v>
       </c>
       <c r="G2">
-        <v>1.010047872608311</v>
+        <v>1.159240826783716</v>
       </c>
       <c r="H2">
-        <v>0.9857809319671844</v>
+        <v>0.7293259888031969</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1708619479876887</v>
+        <v>0.5664918436378343</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8801035284143666</v>
+        <v>2.736960550916422</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1945429446079174</v>
+        <v>0.515123219533649</v>
       </c>
       <c r="C3">
-        <v>0.02965730065874084</v>
+        <v>0.06443606655999901</v>
       </c>
       <c r="D3">
-        <v>0.03360386571623764</v>
+        <v>0.03541353680507697</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.116958623902804</v>
+        <v>1.095092358476862</v>
       </c>
       <c r="G3">
-        <v>0.987655369128575</v>
+        <v>1.066449724372916</v>
       </c>
       <c r="H3">
-        <v>0.9792795701159491</v>
+        <v>0.6928409576383956</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1500835450877531</v>
+        <v>0.4945382734808561</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7839656560886397</v>
+        <v>2.326873911815809</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1812701132699459</v>
+        <v>0.4670095472005897</v>
       </c>
       <c r="C4">
-        <v>0.02861051222124189</v>
+        <v>0.0616951723959005</v>
       </c>
       <c r="D4">
-        <v>0.03339213200879421</v>
+        <v>0.03556149585062762</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.104061161900148</v>
+        <v>1.03843559648034</v>
       </c>
       <c r="G4">
-        <v>0.9743881710405589</v>
+        <v>1.011463881277109</v>
       </c>
       <c r="H4">
-        <v>0.9756552959098883</v>
+        <v>0.6715096539352317</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.137349619966102</v>
+        <v>0.4504041524238289</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7254832238757984</v>
+        <v>2.084367061872527</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1758831402260057</v>
+        <v>0.4474427876273808</v>
       </c>
       <c r="C5">
-        <v>0.02817912639009279</v>
+        <v>0.06056675347143425</v>
       </c>
       <c r="D5">
-        <v>0.03330308439064211</v>
+        <v>0.03561437216817076</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.098939502468468</v>
+        <v>1.015789172438602</v>
       </c>
       <c r="G5">
-        <v>0.9691022251439705</v>
+        <v>0.9895091302399237</v>
       </c>
       <c r="H5">
-        <v>0.9742706183521221</v>
+        <v>0.6630652968567432</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1321667547295675</v>
+        <v>0.4324237828262625</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7017821167133178</v>
+        <v>1.987475457830783</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1749899624732194</v>
+        <v>0.4441958714983372</v>
       </c>
       <c r="C6">
-        <v>0.02810720519035925</v>
+        <v>0.06037870123488887</v>
       </c>
       <c r="D6">
-        <v>0.03328813160917576</v>
+        <v>0.03562272361852514</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.098097143875677</v>
+        <v>1.01205419953709</v>
       </c>
       <c r="G6">
-        <v>0.9682317601336052</v>
+        <v>0.9858895776533245</v>
       </c>
       <c r="H6">
-        <v>0.9740462594888868</v>
+        <v>0.661677539605293</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1313065326671961</v>
+        <v>0.4294382386712954</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6978542880536338</v>
+        <v>1.971492679426404</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1811973740068424</v>
+        <v>0.4667455141599675</v>
       </c>
       <c r="C7">
-        <v>0.02860471385039176</v>
+        <v>0.06167999996971218</v>
       </c>
       <c r="D7">
-        <v>0.03339094225341377</v>
+        <v>0.03556223810781844</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.103991546824773</v>
+        <v>1.038128446559028</v>
       </c>
       <c r="G7">
-        <v>0.9743163956703569</v>
+        <v>1.011166019656045</v>
       </c>
       <c r="H7">
-        <v>0.9756362484189083</v>
+        <v>0.6713947912149081</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.137279696136531</v>
+        <v>0.4501616530426134</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7251630607030251</v>
+        <v>2.083053015873119</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2087801427575187</v>
+        <v>0.5666295779647328</v>
       </c>
       <c r="C8">
-        <v>0.03075781275224898</v>
+        <v>0.06732002441385276</v>
       </c>
       <c r="D8">
-        <v>0.03382031081264003</v>
+        <v>0.03522830835712476</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.131181363466482</v>
+        <v>1.157184223019982</v>
       </c>
       <c r="G8">
-        <v>1.002226532768759</v>
+        <v>1.126803729935077</v>
       </c>
       <c r="H8">
-        <v>0.9834628512678449</v>
+        <v>0.7165105392077606</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1636926977161295</v>
+        <v>0.5416686224359211</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8468377719657525</v>
+        <v>2.593371841746375</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2635419861717878</v>
+        <v>0.7645551580168615</v>
       </c>
       <c r="C9">
-        <v>0.03482666994077732</v>
+        <v>0.07796402165146787</v>
       </c>
       <c r="D9">
-        <v>0.03457387825182145</v>
+        <v>0.03427951412145802</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.188774508677923</v>
+        <v>1.408251897292956</v>
       </c>
       <c r="G9">
-        <v>1.060813933605317</v>
+        <v>1.371763503065608</v>
       </c>
       <c r="H9">
-        <v>1.001737679011995</v>
+        <v>0.8145365708065526</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2156712960070877</v>
+        <v>0.7217886561818858</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.090087323697361</v>
+        <v>3.690034583616608</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3041786633279742</v>
+        <v>0.9119145384481442</v>
       </c>
       <c r="C10">
-        <v>0.03772166002668342</v>
+        <v>0.08545905503467566</v>
       </c>
       <c r="D10">
-        <v>0.03507271384838972</v>
+        <v>0.0333402603566828</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.233734694984136</v>
+        <v>1.607063918403512</v>
       </c>
       <c r="G10">
-        <v>1.106258496999999</v>
+        <v>1.566722935097005</v>
       </c>
       <c r="H10">
-        <v>1.01696512470852</v>
+        <v>0.8940766932480528</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2539640291128933</v>
+        <v>0.8549516047763603</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.272085978004071</v>
+        <v>4.593890197374904</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3227517873469594</v>
+        <v>0.9795262778921483</v>
       </c>
       <c r="C11">
-        <v>0.03901798711891757</v>
+        <v>0.08877226750961853</v>
       </c>
       <c r="D11">
-        <v>0.03528755548003204</v>
+        <v>0.03284183750587388</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.254772141603283</v>
+        <v>1.701606320223846</v>
       </c>
       <c r="G11">
-        <v>1.127464762513171</v>
+        <v>1.659731236345863</v>
       </c>
       <c r="H11">
-        <v>1.024287314088554</v>
+        <v>0.9323525552461547</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2714056822293287</v>
+        <v>0.9157840943324231</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.355696024925507</v>
+        <v>5.038853593632481</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3297973129845957</v>
+        <v>1.005223790777166</v>
       </c>
       <c r="C12">
-        <v>0.03950588659493803</v>
+        <v>0.09000970337608294</v>
       </c>
       <c r="D12">
-        <v>0.03536715696783332</v>
+        <v>0.03264079918709939</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.262823212364509</v>
+        <v>1.738097212945178</v>
       </c>
       <c r="G12">
-        <v>1.135572510131567</v>
+        <v>1.695681601043304</v>
       </c>
       <c r="H12">
-        <v>1.027117121457422</v>
+        <v>0.9471942513406759</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2780133644091336</v>
+        <v>0.9388597553234206</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.387482755126499</v>
+        <v>5.213665315618044</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3282793907455641</v>
+        <v>0.9996850030471478</v>
       </c>
       <c r="C13">
-        <v>0.03940094218302193</v>
+        <v>0.08974403247542284</v>
       </c>
       <c r="D13">
-        <v>0.03535009166124325</v>
+        <v>0.03268468249161849</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.261085496761552</v>
+        <v>1.730205761342674</v>
       </c>
       <c r="G13">
-        <v>1.133822908124728</v>
+        <v>1.687904595318145</v>
       </c>
       <c r="H13">
-        <v>1.026505130631364</v>
+        <v>0.9439815327351369</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2765901568472486</v>
+        <v>0.9338882220776838</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.380631209561642</v>
+        <v>5.175707433847222</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3233311822569362</v>
+        <v>0.981638474106262</v>
       </c>
       <c r="C14">
-        <v>0.03905818700837926</v>
+        <v>0.08887444086634844</v>
       </c>
       <c r="D14">
-        <v>0.03529413960046668</v>
+        <v>0.03282555830680245</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.255432808441824</v>
+        <v>1.704593980633959</v>
       </c>
       <c r="G14">
-        <v>1.128130236606381</v>
+        <v>1.662673557287349</v>
       </c>
       <c r="H14">
-        <v>1.02451897927736</v>
+        <v>0.9335663276350203</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2719492435116422</v>
+        <v>0.9176817419127588</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.358308579326533</v>
+        <v>5.053098924916014</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3203018538963249</v>
+        <v>0.9705970701956517</v>
       </c>
       <c r="C15">
-        <v>0.03884784919906537</v>
+        <v>0.08833942843126863</v>
       </c>
       <c r="D15">
-        <v>0.03525963837003943</v>
+        <v>0.03291017638102467</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.2519814134439</v>
+        <v>1.688999153444968</v>
       </c>
       <c r="G15">
-        <v>1.124653411134972</v>
+        <v>1.647317515346998</v>
       </c>
       <c r="H15">
-        <v>1.023309841152098</v>
+        <v>0.9272334990428135</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2691069206113923</v>
+        <v>0.9077600087553037</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.344651892175094</v>
+        <v>4.978870920750822</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3029665997913753</v>
+        <v>0.9075085640701559</v>
       </c>
       <c r="C16">
-        <v>0.03763652483961977</v>
+        <v>0.08524033179212154</v>
       </c>
       <c r="D16">
-        <v>0.03505842887318167</v>
+        <v>0.033371237592835</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.232371663412579</v>
+        <v>1.600975995776153</v>
       </c>
       <c r="G16">
-        <v>1.104883409383092</v>
+        <v>1.56074038178221</v>
       </c>
       <c r="H16">
-        <v>1.016494573501006</v>
+        <v>0.8916211652704078</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2528245975245511</v>
+        <v>0.8509815259474749</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.266638986116178</v>
+        <v>4.565605199173518</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2923541512597012</v>
+        <v>0.8689620310524049</v>
       </c>
       <c r="C17">
-        <v>0.03688811685873361</v>
+        <v>0.08331245005165755</v>
       </c>
       <c r="D17">
-        <v>0.0349318868751034</v>
+        <v>0.03363455548398164</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.220491894641967</v>
+        <v>1.548092496419343</v>
       </c>
       <c r="G17">
-        <v>1.0928922465651</v>
+        <v>1.508805625781378</v>
       </c>
       <c r="H17">
-        <v>1.012414997992749</v>
+        <v>0.8703405904885813</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2428413860669423</v>
+        <v>0.816218282826398</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.218995576601401</v>
+        <v>4.321638604949257</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2862583840328909</v>
+        <v>0.846844759939728</v>
       </c>
       <c r="C18">
-        <v>0.03645571327342623</v>
+        <v>0.08219477714586532</v>
       </c>
       <c r="D18">
-        <v>0.03485796714437228</v>
+        <v>0.03377946187751846</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.213713979934425</v>
+        <v>1.518054441669761</v>
       </c>
       <c r="G18">
-        <v>1.086045401510205</v>
+        <v>1.479333174536265</v>
       </c>
       <c r="H18">
-        <v>1.010105713239682</v>
+        <v>0.8582943083130203</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2371014028268377</v>
+        <v>0.7962474350911179</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.191668857761115</v>
+        <v>4.184388325253735</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2841958840761549</v>
+        <v>0.8393650891173934</v>
       </c>
       <c r="C19">
-        <v>0.03630897661304999</v>
+        <v>0.08181492273822499</v>
       </c>
       <c r="D19">
-        <v>0.03483274458682928</v>
+        <v>0.0338274545528634</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.211428526585237</v>
+        <v>1.507946447437874</v>
       </c>
       <c r="G19">
-        <v>1.083735770105932</v>
+        <v>1.469419866063333</v>
       </c>
       <c r="H19">
-        <v>1.009330207658024</v>
+        <v>0.8542476397438747</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2351583113840263</v>
+        <v>0.7894896450973334</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.182429406673748</v>
+        <v>4.138408073340088</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2934830144273519</v>
+        <v>0.8730597344918749</v>
       </c>
       <c r="C20">
-        <v>0.03696798704744708</v>
+        <v>0.08351860817217727</v>
       </c>
       <c r="D20">
-        <v>0.0349454751956273</v>
+        <v>0.0336072156680256</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.221750818609493</v>
+        <v>1.553682133072343</v>
       </c>
       <c r="G20">
-        <v>1.094163530407798</v>
+        <v>1.51429214850836</v>
       </c>
       <c r="H20">
-        <v>1.012845426202119</v>
+        <v>0.8725855831021931</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2439039010129704</v>
+        <v>0.8199163697690182</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.224059324508445</v>
+        <v>4.34728209282116</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3247842596930468</v>
+        <v>0.9869365292705652</v>
       </c>
       <c r="C21">
-        <v>0.03915894391099073</v>
+        <v>0.08913036127675866</v>
       </c>
       <c r="D21">
-        <v>0.0353106218264152</v>
+        <v>0.03278453274155702</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.257090838349384</v>
+        <v>1.712097166035235</v>
       </c>
       <c r="G21">
-        <v>1.129800206079352</v>
+        <v>1.670063729069369</v>
       </c>
       <c r="H21">
-        <v>1.02510080980764</v>
+        <v>0.9366156793918208</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2733123155205988</v>
+        <v>0.9224408932315953</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.364861809887472</v>
+        <v>5.088926747648998</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3453129267905126</v>
+        <v>1.061916178400253</v>
       </c>
       <c r="C22">
-        <v>0.04057341192175556</v>
+        <v>0.09269504318778132</v>
       </c>
       <c r="D22">
-        <v>0.03553903252669599</v>
+        <v>0.03217375945266809</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.280681226362205</v>
+        <v>1.819713121966018</v>
       </c>
       <c r="G22">
-        <v>1.153542284341427</v>
+        <v>1.776193657149378</v>
       </c>
       <c r="H22">
-        <v>1.033443070730527</v>
+        <v>0.9805171404704538</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2925492320622425</v>
+        <v>0.9896766656706291</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.457619186023237</v>
+        <v>5.611490039308393</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3343499366134211</v>
+        <v>1.021843960776039</v>
       </c>
       <c r="C23">
-        <v>0.03982008912041834</v>
+        <v>0.09080340768367989</v>
       </c>
       <c r="D23">
-        <v>0.03541806745735343</v>
+        <v>0.0325072767559913</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.268045241307092</v>
+        <v>1.761864294265166</v>
       </c>
       <c r="G23">
-        <v>1.140829147397596</v>
+        <v>1.719112187024535</v>
       </c>
       <c r="H23">
-        <v>1.028960133395827</v>
+        <v>0.9568802239929255</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2822806779791165</v>
+        <v>0.9537706169797957</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.408042962014918</v>
+        <v>5.328511232959954</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2929726383285924</v>
+        <v>0.8712070277089481</v>
       </c>
       <c r="C24">
-        <v>0.03693188437938488</v>
+        <v>0.08342543284432224</v>
       </c>
       <c r="D24">
-        <v>0.03493933555608564</v>
+        <v>0.03361959603062381</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.22118149739768</v>
+        <v>1.5511539275535</v>
       </c>
       <c r="G24">
-        <v>1.093588636535031</v>
+        <v>1.511810498650959</v>
       </c>
       <c r="H24">
-        <v>1.012650717128338</v>
+        <v>0.87157003911787</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2434235395489992</v>
+        <v>0.8182444182013029</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.221769804972794</v>
+        <v>4.335679401458748</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.248656191963164</v>
+        <v>0.7107209552743257</v>
       </c>
       <c r="C25">
-        <v>0.03374244819838879</v>
+        <v>0.07513501357741603</v>
       </c>
       <c r="D25">
-        <v>0.03437957863046748</v>
+        <v>0.03457344805191376</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.172732260225644</v>
+        <v>1.338103438799934</v>
       </c>
       <c r="G25">
-        <v>1.044546575488681</v>
+        <v>1.303178817996923</v>
       </c>
       <c r="H25">
-        <v>0.9964788027899658</v>
+        <v>0.7868340354374936</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2015909090158061</v>
+        <v>0.6729443372540658</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.023738538602785</v>
+        <v>3.379548732141444</v>
       </c>
       <c r="N25">
         <v>0</v>
